--- a/frontend/addons/FILE_WITH_MODS.xlsx
+++ b/frontend/addons/FILE_WITH_MODS.xlsx
@@ -11,11 +11,11 @@
     <definedName hidden="1" name="Google_Sheet_Link_123456494">'Лист1'!$A$2</definedName>
     <definedName hidden="1" name="Google_Sheet_Link_1983721475">'Лист1'!$A$16</definedName>
     <definedName hidden="1" name="Google_Sheet_Link_985169382">'Лист1'!$A$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4B4AFF4E_8B98_4D6A_988F_CFF0A3FAAF6C_.wvu.FilterData">'Лист1'!$C$1:$C$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7E0E7B26_1DBE_4290_BBB8_451279177D45_.wvu.FilterData">'Лист1'!$C$1:$C$1000</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4B4AFF4E-8B98-4D6A-988F-CFF0A3FAAF6C}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7E0E7B26-1DBE-4290-BBB8-451279177D45}" name="Фильтр 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="496">
   <si>
     <t>Алхимия</t>
   </si>
@@ -58,6 +58,24 @@
     <t>https://drive.google.com/file/d/1A6nYaskyf0ZDIca1hyNrVO5gxFvg6TuE/view?usp=sharing</t>
   </si>
   <si>
+    <t>Война и мир</t>
+  </si>
+  <si>
+    <t>mod;medium;new;global;buildings;science</t>
+  </si>
+  <si>
+    <t>Обновляет несколько ванильных механик</t>
+  </si>
+  <si>
+    <t>Бро?Или нет?#2745</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FRxJQPkZqMLd8EYe-p3thOK8izrryV46/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2 проблемы</t>
+  </si>
+  <si>
     <t>Дирижабли</t>
   </si>
   <si>
@@ -73,7 +91,7 @@
     <t>https://drive.google.com/file/d/1obcTWuP3bXlwuV6h6l67WRVgkgn_Qxdi/view?usp=sharing</t>
   </si>
   <si>
-    <t>2 проблемы</t>
+    <t>2 зомби</t>
   </si>
   <si>
     <t>Драконы</t>
@@ -91,7 +109,40 @@
     <t>https://drive.google.com/file/d/10bJtwqD46eC5nQV8ncIk9s3fLXPSbi7E/view?usp=sharing</t>
   </si>
   <si>
-    <t>2 зомби</t>
+    <t>2 стены</t>
+  </si>
+  <si>
+    <t>Драконы-Skyrim</t>
+  </si>
+  <si>
+    <t>submod;medium;buildings;religion;units;race</t>
+  </si>
+  <si>
+    <t>Добавляет вещи из skyrim</t>
+  </si>
+  <si>
+    <t>Facre#9999</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TiwwLNYMGElbjWzAw44l7nyacWhkoZIk/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Древний мир</t>
+  </si>
+  <si>
+    <t>Era Cycle</t>
+  </si>
+  <si>
+    <t>mod;new;small;units;rebalance;resources</t>
+  </si>
+  <si>
+    <t>Дополнение для игры с Era Cycle, позволяющее разнообразить начало своего приключения</t>
+  </si>
+  <si>
+    <t>Andrew404#5092</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LX_BwDMJ0QhCXoQZVOGtNZWhiN_3_FYB/view?usp=sharing</t>
   </si>
   <si>
     <t>Заводы</t>
@@ -109,9 +160,6 @@
     <t>https://drive.google.com/file/d/1g9hK7c-sVVudb6oah9GOGWvkZmMoLHWp/view?usp=sharing</t>
   </si>
   <si>
-    <t>2 стены</t>
-  </si>
-  <si>
     <t>Займ</t>
   </si>
   <si>
@@ -142,6 +190,18 @@
     <t>https://drive.google.com/file/d/1A1R_WdabCzp3i5n73R4fDKcrQRpSD2kp/view?usp=sharing</t>
   </si>
   <si>
+    <t>Здания для поселения</t>
+  </si>
+  <si>
+    <t>Добавляет здания для жителей</t>
+  </si>
+  <si>
+    <t>Dark_King</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JqSs1yA3hGydI8_uXpxZFynsO_gQtvHl/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Зомби</t>
   </si>
   <si>
@@ -163,7 +223,7 @@
     <t>Идеалогии + Мародёры</t>
   </si>
   <si>
-    <t>mod;medium;rebalance;politics;top</t>
+    <t>mod;medium;rebalance;politics</t>
   </si>
   <si>
     <t>Каждая идеалогия даёт свой бонус, а так же добавлена система мародеров</t>
@@ -175,6 +235,21 @@
     <t>https://drive.google.com/file/d/1QMmKcwEviDfOzc8O6YCvOTh93dNuhJrI/view?usp=sharing</t>
   </si>
   <si>
+    <t>Мод на войны</t>
+  </si>
+  <si>
+    <t>mod;new;large;rebalance;war;buildings;objects;units</t>
+  </si>
+  <si>
+    <t>Дополняет систему войны</t>
+  </si>
+  <si>
+    <t>артемпермяков</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1PRsaIe0oWgcEOxw-BcE6tDCJF1oIKYjnv23OQ2t7hNw/edit?usp=sharing</t>
+  </si>
+  <si>
     <t>Морской волк</t>
   </si>
   <si>
@@ -190,10 +265,22 @@
     <t>https://docs.google.com/document/d/1TkHYetXZxuAxABwQn72p5nok8Hw_TdB2wZLeOPHbw-Y/edit</t>
   </si>
   <si>
+    <t xml:space="preserve">Новые воины </t>
+  </si>
+  <si>
+    <t>mod;new;large;units</t>
+  </si>
+  <si>
+    <t>новые воины распределенные по эрам</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sKvN1TCzBsSD96JvCiBwfdNLo1dlGcmD/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Новые руды</t>
   </si>
   <si>
-    <t>mod;new;resources;objects;buildings;top</t>
+    <t>mod;new;resources;objects;buildings</t>
   </si>
   <si>
     <t>Добавляет новые руды</t>
@@ -229,12 +316,24 @@
     <t>Добавляет в игру правителей</t>
   </si>
   <si>
-    <t>Facre#9999</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/19AwfTqqVVvl5FRCL2lcpGR54XiSBdtkN/view?usp=sharing</t>
   </si>
   <si>
+    <t>Пути войны</t>
+  </si>
+  <si>
+    <t>mod;new;large;global;war;buildings;units</t>
+  </si>
+  <si>
+    <t>изменяет ванильную боевую систему на новую.</t>
+  </si>
+  <si>
+    <t>catffish#3716</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BUcNiqyYDkNaMdH5wv-xfl7zJJMN0JqX/view?usp=sharing</t>
+  </si>
+  <si>
     <t>РАБОТА и НОВЫЕ ЗДАНИЯ</t>
   </si>
   <si>
@@ -253,6 +352,30 @@
     <t>-население</t>
   </si>
   <si>
+    <t>Религия+</t>
+  </si>
+  <si>
+    <t>mod;new;medium;buildings;units</t>
+  </si>
+  <si>
+    <t>Добавляет новых бойцов и здания</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Xfcr1SRWhFz1NjSgfvYmBxCfhkkVbb3I/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Система союзов</t>
+  </si>
+  <si>
+    <t>Добавляет систему союзов.</t>
+  </si>
+  <si>
+    <t>Zeon#8400</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1b3izmWAQpnDpKVo8LvKeZoqtDC4rm5d0zMDjvHncmaQ/edit?usp=sharing</t>
+  </si>
+  <si>
     <t>Структуры</t>
   </si>
   <si>
@@ -271,7 +394,7 @@
     <t>Транспорт</t>
   </si>
   <si>
-    <t>mod;medium;new;resources;buildings;sea;transport;top</t>
+    <t>mod;medium;new;resources;buildings;sea;transport</t>
   </si>
   <si>
     <t>Транспорт,дороги,нефть и тд</t>
@@ -292,7 +415,7 @@
     <t>Добовляет быстрое передвижение и возможность передвигаться по воде</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1fHW3CC11OvMVk4VRJBmC7WNgBokPBvMe/view?usp=sharing</t>
+    <t>https://docs.google.com/document/d/1rEeQTcg22g6yfEEOX9sOFSGwrrB3Wx215K-zs1Xuk2U/edit?usp=sharing</t>
   </si>
   <si>
     <t>УЁБА</t>
@@ -301,7 +424,7 @@
     <t>Contentment;Science Expanded</t>
   </si>
   <si>
-    <t>mod;large;global;new;buildings;science;resources;top</t>
+    <t>mod;large;global;new;buildings;science;resources</t>
   </si>
   <si>
     <t>Добавляет урбанизацию</t>
@@ -322,7 +445,7 @@
     <t>Civ Fight</t>
   </si>
   <si>
-    <t>submod;small;new;buildings;war;units</t>
+    <t>mod;small;new;buildings;war;units</t>
   </si>
   <si>
     <t>Добавляет стены и методы их разрушения</t>
@@ -370,6 +493,24 @@
     <t>https://drive.google.com/file/d/1j-btN_9m1RjtpFdggM7yPfmP0WN3lQAX/view?usp=sharing</t>
   </si>
   <si>
+    <t>Alone Fight</t>
+  </si>
+  <si>
+    <t>Find Resourse;Ресурсы;Civ Fight;Turns</t>
+  </si>
+  <si>
+    <t>mod;new;medium;global;war</t>
+  </si>
+  <si>
+    <t>Изменение механик. Нет юнитов, только вы и ваши враги. Нет промышленности и валюты.</t>
+  </si>
+  <si>
+    <t>kertok#6094</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z3AQfmEdiRn95i5jrwzQElIYidHEP16U/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Arm</t>
   </si>
   <si>
@@ -406,13 +547,28 @@
     <t>экипировка</t>
   </si>
   <si>
+    <t>Army management</t>
+  </si>
+  <si>
+    <t>mod;small;new;war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Немного изменяет систему отрядов и добавляет возможность подкреплений(в ванильной версии таковой найдено не было). </t>
+  </si>
+  <si>
+    <t>PetyxLord</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W1dvVli-wsgPBj46KTghmG-yHtKr2ge9/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Bandits and mercinaries</t>
   </si>
   <si>
     <t>Civ Fight;Rebels;Укрепления;Turns;Many New Units</t>
   </si>
   <si>
-    <t>mod;large;new;war;units;enemies;top</t>
+    <t>mod;large;new;war;units;enemies</t>
   </si>
   <si>
     <t>Добавлены бандиты, наёмники и ещё пару механик</t>
@@ -472,6 +628,22 @@
     <t>https://drive.google.com/file/d/1w3XKcJsuKK63J9zDlxZaS4pDj2d74l3F/view?usp=sharing</t>
   </si>
   <si>
+    <t>Bipreodon the Global Addon</t>
+  </si>
+  <si>
+    <t>mod;global;new;large;war;buildings;science;resources;transport</t>
+  </si>
+  <si>
+    <t>Один из самых огромных модов, который добавляет свою систему эр и ходов, перерабатывает армию 
+и позволяет графически показать её двумя способами, создаёт систему революциии, счастья, а также новые здания, кораблестроение и ветку науки вперемешку с новыми карточками.</t>
+  </si>
+  <si>
+    <t>hypdig (бэкрумс топ)#7726</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Qk-7ZGSB7ED0yNpPY1bEHSxOD3mgYgBM/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Bisuness</t>
   </si>
   <si>
@@ -493,9 +665,6 @@
     <t>Добавляет механику продажи излишком на внутреннем рынке, возможность отдать их населению просто так, а так же объясняет, что будет, если ваше население не будет обеспеченно едой</t>
   </si>
   <si>
-    <t>catffish#3716</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/12Ful_oCqi5SMLf3sYUQU4a_9EjZFAPqH/view?usp=sharing</t>
   </si>
   <si>
@@ -508,9 +677,6 @@
     <t>Позволяет кроме колоний строить города</t>
   </si>
   <si>
-    <t>Andrew404#5092</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1kaATb46vrtS0gtwVzgeVOc6z39eSsd_w/view?usp=sharing</t>
   </si>
   <si>
@@ -529,6 +695,18 @@
     <t>https://drive.google.com/file/d/1X3E0Z49GE2BugQ4tu2NuFN2ZziSivQUX/view?usp=sharing</t>
   </si>
   <si>
+    <t>mod;rebalance;small;war</t>
+  </si>
+  <si>
+    <t>Добавляет доработанную боевую систему с передвижением и возможностью уничтожения клеток государства.</t>
+  </si>
+  <si>
+    <t>ishao#0063</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D4OzuAkA59L0gFa45Gqg1yzR2w6-wf-3/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Civ Fight: Inv and items</t>
   </si>
   <si>
@@ -547,9 +725,6 @@
     <t>Turns</t>
   </si>
   <si>
-    <t>mod;small;new;buildings;top</t>
-  </si>
-  <si>
     <t>Дополнение, которое добавляет механику "довольства" жителей и их лояльность к власти.</t>
   </si>
   <si>
@@ -637,22 +812,19 @@
     <t>Duels and more</t>
   </si>
   <si>
-    <t>mod;large;global;new;units;buildings;objects;war;science;top</t>
+    <t>mod;large;global;new;units;buildings;objects;war;science</t>
   </si>
   <si>
     <t>Огромное DLC, представляющее из себя сборку всех зависимостей и самого дополнения Duels. Его размер - 22 страницы и 2128 слов! Оно одобряется в использовании в дуэльном клубе.</t>
   </si>
   <si>
-    <t>ishao#0063</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1ZDpirPH4uz1eROMY4SQ9358reLTuEUBO/view?usp=sharing</t>
   </si>
   <si>
     <t>Epidemics</t>
   </si>
   <si>
-    <t>mod;medium;new;buildings;religion;disease;top</t>
+    <t>mod;medium;new;buildings;religion;disease</t>
   </si>
   <si>
     <t xml:space="preserve">добавляет эпедемии, доктрины для религии, и новые здания. </t>
@@ -664,6 +836,133 @@
     <t>https://drive.google.com/file/d/18GPpCIY661zpPevlaHTn35cTxRu3P1u5/view?usp=sharing</t>
   </si>
   <si>
+    <t>mod;new;small;core</t>
+  </si>
+  <si>
+    <t>Ядро, добавляющее ограничение по эпохам и Эрам в вашу партию, чтобы например нельзя было полететь в космос в средневековье</t>
+  </si>
+  <si>
+    <t>gfm13#1313</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1545d46Oa3Z7swY9BvWakqosk16-Gps_o/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Era Cycle+</t>
+  </si>
+  <si>
+    <t>submod;small;rebalance</t>
+  </si>
+  <si>
+    <t>Увеличение времени различных эр</t>
+  </si>
+  <si>
+    <t>chefик#2712</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N1vQQZBZgtUDlyBk8U5-M3p7McVHyxED/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Era Cycle+_Alternative</t>
+  </si>
+  <si>
+    <t>Era Cycle+;Ресурсы;Глина;Space</t>
+  </si>
+  <si>
+    <t>submod;core;new;small;buildings;rebalance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Альтернативные перемещение по эрам(Полная инфа тут: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://discord.gg/dfd66B9Msx)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K4hld4x1UQ3CZXfqVq8LxaC3_icwAxZA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Era_NowaDay</t>
+  </si>
+  <si>
+    <t>Ресурсы;Era Cycle+_Alternative;Era_Buildings;Factory;Транспорт;Turns;Глина;Space</t>
+  </si>
+  <si>
+    <t>mod;new;large;buildings;resources;global</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Мод о нашем времени, добавляет многие фишки из нашего с вами времени прямо на бумагу! Фантастика!(Полная инфа тут: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://discord.gg/rjhcjBPkvt)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>chefик#2712Andrewant#6588Artur222x#5922Архиепископ Культа Чжена#1125car922firley#0525</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PJq4_VcN8DLxvVlT5F40yIyq1G_WPyMr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Factories</t>
+  </si>
+  <si>
+    <t>Era Cycle;Ресурсы</t>
+  </si>
+  <si>
+    <t>Добавляет различные заводы</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17CQFIjxp1QD08HPZTanpSFWLYag72dP2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>mod;new;medium;rebalance;resources;buildings</t>
+  </si>
+  <si>
+    <t>Мод больше полезен тем, кто хочет добавить реализма на фермы, но пока это ДЕМО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car922firley#0525 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-AUpsQmDJeorEk9-aXJHhhiyy2enqvwd/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Fishing Ezer</t>
   </si>
   <si>
@@ -682,7 +981,7 @@
     <t>GOD</t>
   </si>
   <si>
-    <t>mod;medium;new;buildings;religion;top</t>
+    <t>mod;medium;new;buildings;religion</t>
   </si>
   <si>
     <t>Дары богов</t>
@@ -691,6 +990,36 @@
     <t>https://drive.google.com/file/d/11IhSYHbsamtTuC9w4NfI-y2ASCv6JVAQ/view?usp=sharing</t>
   </si>
   <si>
+    <t>Hardcore</t>
+  </si>
+  <si>
+    <t>mod;rebalance;small;war;resources</t>
+  </si>
+  <si>
+    <t>Новые правила, что усложняют игру</t>
+  </si>
+  <si>
+    <t>Хрю-Хрю#0001 Andrew404#5092</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WC5cg3e1oNyit0LJiQNXNMuP2ng2G4v3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Horizonts</t>
+  </si>
+  <si>
+    <t>mod;rebalance;small;expansion;war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавлена возможность улучшения столицу и расширения её до размера 7x7. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19GFGl_1qekMiqlNqrsNKi1g5B0DKV3hV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
     <t>HxB</t>
   </si>
   <si>
@@ -706,6 +1035,39 @@
     <t>https://drive.google.com/file/d/17vodQWL3lG94FWlzY-B-K-D3n-0cznZ2/view?usp=sharing</t>
   </si>
   <si>
+    <t>Ideologies</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>Добавляет новые идеалогии</t>
+  </si>
+  <si>
+    <t>Амогус#4121</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TtuMc1qDtKmQjBmkt97z8lYJfMGkMJfp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Era Cycle;Civ Fight;Turns</t>
+  </si>
+  <si>
+    <t>mod;medium;new;units;buildings;politics</t>
+  </si>
+  <si>
+    <t>Добавляет империю</t>
+  </si>
+  <si>
+    <t>Alsara</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PpqXjRahMRWu9SKQ3tu4f0s9CXuwd-3l/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Infrastructure Rails</t>
   </si>
   <si>
@@ -713,6 +1075,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1L2Betb-OMbJX48tEOJj_N_1zHQqYMShi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>mod;medium;new;units;politics</t>
+  </si>
+  <si>
+    <t>Добавляет королевство</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yZ9m_7HryPKdwJojM6HzzSSfhAgvhLR4/view?usp=sharing</t>
   </si>
   <si>
     <t>Kings</t>
@@ -731,10 +1105,70 @@
     <t>https://drive.google.com/file/d/19CigulVAz4iB8FEKwceLdBir7ySmQQFf/view?usp=sharing</t>
   </si>
   <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>mod;large;new;objects;transport</t>
+  </si>
+  <si>
+    <t>Добовляет различные биомы. Будут регулярные обновления.</t>
+  </si>
+  <si>
+    <t>🌃Dark_King🌑#2775</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sR5Vsst5uoo-J-9ZF-QttIQjXnB0XptA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Light fight</t>
+  </si>
+  <si>
+    <t>mod;small;core;rebalance</t>
+  </si>
+  <si>
+    <t>Изменяет боевую систему</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VXUyo_YzIPm9Au7mQd8oJ861NRUZzvYR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Lvl up</t>
+  </si>
+  <si>
+    <t>Добавлены лвл зданий, новые здания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorinich228xD#9272 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wBsM82CyLJO-zI8DAeITAIJG2LWKAXqv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>new;large;units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнение, которое, вероятнее всего, меньше всего влияет на механику игры.Добавляет новых воинов. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dM6otp5Z2RnrqcY2dnIWw1h45fxIZeg_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Many New Units-Buildings</t>
+  </si>
+  <si>
+    <t>submod;small;buildings</t>
+  </si>
+  <si>
+    <t>Добавляет здания для найма юнитов из many new units</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aXJVvQDkho49wtJmXTEbHy-iAu4ZEofD/view?usp=sharing</t>
+  </si>
+  <si>
     <t>Minimalistic</t>
   </si>
   <si>
-    <t>independent;large;top</t>
+    <t>independent;large</t>
   </si>
   <si>
     <t>Добавляет банки, изменённое золото, переводы между государствами через банки, рыбалка, рынки, работников(те кто строят здания) создание своего ландшафта(входят деревья камни, пещеры, церковь, главное здание государства) и это только малая часть того, что там будет присутствовать</t>
@@ -743,6 +1177,21 @@
     <t>https://docs.google.com/document/d/1CMAqLCCpv2j_BTdaM4I3Iwt_S2PAS8GO3l0Fos-mHgE/edit?usp=sharing</t>
   </si>
   <si>
+    <t>Money is the future</t>
+  </si>
+  <si>
+    <t>mod;new;resources;buildings</t>
+  </si>
+  <si>
+    <t>расширяет экономику</t>
+  </si>
+  <si>
+    <t>floppyDisk#5590</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DGOPa7pbQp-wqtwDqaMLOwtaLUAY36u7/view?usp=sharing</t>
+  </si>
+  <si>
     <t>MythologyAges</t>
   </si>
   <si>
@@ -869,7 +1318,7 @@
     <t>Races</t>
   </si>
   <si>
-    <t>mod;large;new;rebalance;war;race;buildings;units;top</t>
+    <t>mod;large;new;rebalance;war;race;buildings;units</t>
   </si>
   <si>
     <t>Добавляет расы</t>
@@ -890,178 +1339,16 @@
     <t>https://drive.google.com/file/d/1o99l3amAowCH6Sr9v2viFK2qk22pm-5H/view?usp=sharing</t>
   </si>
   <si>
-    <t>Sea</t>
-  </si>
-  <si>
-    <t>mod;small;new;sea;objects;units</t>
-  </si>
-  <si>
-    <t>Добавляет нового юнита - пират, транспортное средство которое может переплывать через моря и океаны(реки), а также сами моря и океаны</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OwOjZ0MN6Yz6iUD6TGtjEtbQnmmpSUb6/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Ships</t>
-  </si>
-  <si>
-    <t>Era Cycle</t>
-  </si>
-  <si>
-    <t>mod;new;medium;sea;units</t>
-  </si>
-  <si>
-    <t>обновленная механика кораблей</t>
-  </si>
-  <si>
-    <t>ЪЫЪ#1834</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gKLz2Qb1AOuVcDNHNZhKgKFhnRmSByTY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>single mode and something else</t>
-  </si>
-  <si>
-    <t>Ресурсы;РАБОТА и НОВЫЕ ЗДАНИЯ</t>
-  </si>
-  <si>
-    <t>mod;rebalance;medium</t>
-  </si>
-  <si>
-    <t>добавляет способ ходов в одиночном режиме, новые ресурсы, и ландшафт</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AXsYE0itcMeiDsJTO4EwJB0ftoqV1dZG/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>submod;medium;buildings;religion;units;race</t>
-  </si>
-  <si>
-    <t>Добавляет вещи из skyrim</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TiwwLNYMGElbjWzAw44l7nyacWhkoZIk/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>The Revolution</t>
-  </si>
-  <si>
-    <t>этот мод добавляет революции возможность изменять размер налогов и контролировать уровень жизни населения</t>
-  </si>
-  <si>
-    <t>ZiGa#7527</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sZt2Sf0AYFIB9HEui5Xn4bc13ylhCX03/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Trains</t>
-  </si>
-  <si>
-    <t>mod;new;small;transport;buildings</t>
-  </si>
-  <si>
-    <t>добавляет механику поездов</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Y1G7oFWLQPL4SBMkfjM4ao81bx6G9OQr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>UnitClasses</t>
-  </si>
-  <si>
-    <t>core;small;rebalance;war;units</t>
-  </si>
-  <si>
-    <t>Классификация юнитов по разным типам, чтобы было удобнее.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kBxb9OXiAn2owyDIZjsOF5uMADejJ5Ti/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>World Blood v1.1</t>
-  </si>
-  <si>
-    <t>mod;global;large;buildings;units;war;religion;resources;race;top</t>
-  </si>
-  <si>
-    <t>Много новых рас, механик и юнитов</t>
-  </si>
-  <si>
-    <t>kertok#6094</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/139Ak-o72e8uBU2Wg-uSOEN-8t-OEXUEAG-b2nXJGpNw/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>World Blood v2.0</t>
-  </si>
-  <si>
-    <t>mod;global;large;buildings;units;war;religion;resources;top</t>
-  </si>
-  <si>
-    <t>Много новых рас, механик и юннитов</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Tyo_XI3su5fP2uBFmYPYUTvtEGZmaJdU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>World Blood v2.1beta</t>
-  </si>
-  <si>
-    <t>Новая версия создана в угоду баланса. Новые юниты, Воеводы, Здания.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ea35t_Pf9M8Qq8k0tww50Eo6er5NnTAJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Hardcore</t>
-  </si>
-  <si>
-    <t>mod;rebalance;small;war;resources</t>
-  </si>
-  <si>
-    <t>Новые правила, что усложняют игру</t>
-  </si>
-  <si>
-    <t>Хрю-Хрю#0001 Andrew404#5092</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WC5cg3e1oNyit0LJiQNXNMuP2ng2G4v3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>mod;rebalance;small;war</t>
-  </si>
-  <si>
-    <t>Добавляет доработанную боевую систему с передвижением и возможностью уничтожения клеток государства.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MZzkzrvSiTqR5qLMHBQoxxUU8AqhLF-z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>mod;new;large;units;top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дополнение, которое, вероятнее всего, меньше всего влияет на механику игры.Добавляет новых воинов. </t>
-  </si>
-  <si>
-    <t>Ideologies</t>
-  </si>
-  <si>
-    <t>politics</t>
-  </si>
-  <si>
-    <t>Добавляет новые идеалогии</t>
-  </si>
-  <si>
-    <t>Амогус#4121</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TtuMc1qDtKmQjBmkt97z8lYJfMGkMJfp/view?usp=sharing</t>
+    <t>Religion Expanded</t>
+  </si>
+  <si>
+    <t>mod;new;large;religion;units;buildings;rebalance;global</t>
+  </si>
+  <si>
+    <t>Обновлённое ядро, расширяющее механику религии, добавляет новых юнитов, новый вид победы, перки религий и многое другое.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16PFNBL9eh6VUUVe1Dfw513MK0EVa3zQX/view?usp=sharing</t>
   </si>
   <si>
     <t>Science Expanded</t>
@@ -1070,7 +1357,7 @@
     <t>Era Cycle;Turns;Many New Units</t>
   </si>
   <si>
-    <t>mod;new;medium;rebalance;science;buildings;global;top</t>
+    <t>mod;new;medium;core;rebalance;science;buildings;global</t>
   </si>
   <si>
     <t>Полностью переделанная система науки, новые здания, их улучшение, ракетостроение, ветка исследований и даже шпионы!
@@ -1080,160 +1367,115 @@
     <t>https://drive.google.com/file/d/1wr94rjbDc42HQJ4LYMkhnROgiB3pM1r0/view?usp=sharing</t>
   </si>
   <si>
-    <t>Religion Expanded</t>
-  </si>
-  <si>
-    <t>mod;new;large;religion;units;buildings;rebalance;global;top</t>
-  </si>
-  <si>
-    <t>Обновлённое ядро, расширяющее механику религии, добавляет новых юнитов, новый вид победы, перки религий и многое другое.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16PFNBL9eh6VUUVe1Dfw513MK0EVa3zQX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Alone Fight</t>
-  </si>
-  <si>
-    <t>Find Resourse;Ресурсы;Civ Fight;Turns</t>
-  </si>
-  <si>
-    <t>mod;new;medium;global;war</t>
-  </si>
-  <si>
-    <t>Изменение механик. Нет юнитов, только вы и ваши враги. Нет промышленности и валюты.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1z3AQfmEdiRn95i5jrwzQElIYidHEP16U/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Factories</t>
-  </si>
-  <si>
-    <t>Era Cycle;Ресурсы</t>
-  </si>
-  <si>
-    <t>mod;new;small;buildings;top</t>
-  </si>
-  <si>
-    <t>Добавляет различные заводы</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17CQFIjxp1QD08HPZTanpSFWLYag72dP2/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Farming</t>
-  </si>
-  <si>
-    <t>mod;new;medium;rebalance;resources;buildings</t>
-  </si>
-  <si>
-    <t>Мод больше полезен тем, кто хочет добавить реализма на фермы, но пока это ДЕМО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car922firley#0525 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-AUpsQmDJeorEk9-aXJHhhiyy2enqvwd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Религия+</t>
-  </si>
-  <si>
-    <t>mod;new;medium;buildings;units</t>
-  </si>
-  <si>
-    <t>Добавляет новых бойцов и здания</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Xfcr1SRWhFz1NjSgfvYmBxCfhkkVbb3I/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Война и мир</t>
-  </si>
-  <si>
-    <t>mod;medium;new;global;buildings;science;top</t>
-  </si>
-  <si>
-    <t>Обновляет несколько ванильных механик</t>
-  </si>
-  <si>
-    <t>Бро?Или нет?#2745</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1FRxJQPkZqMLd8EYe-p3thOK8izrryV46/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Система союзов</t>
-  </si>
-  <si>
-    <t>Добавляет систему союзов.</t>
-  </si>
-  <si>
-    <t>Zeon#8400</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1b3izmWAQpnDpKVo8LvKeZoqtDC4rm5d0zMDjvHncmaQ/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>Horizonts</t>
-  </si>
-  <si>
-    <t>mod;rebalance;small;expansion;war</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавлена возможность улучшения столицу и расширения её до размера 7x7. </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19GFGl_1qekMiqlNqrsNKi1g5B0DKV3hV/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>walls</t>
-  </si>
-  <si>
-    <t>Army management</t>
-  </si>
-  <si>
-    <t>mod;small;new;war;top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Немного изменяет систему отрядов и добавляет возможность подкреплений(в ванильной версии таковой найдено не было). </t>
-  </si>
-  <si>
-    <t>PetyxLord</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1W1dvVli-wsgPBj46KTghmG-yHtKr2ge9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Мод на войны</t>
-  </si>
-  <si>
-    <t>mod;new;large;rebalance;war;buildings;objects;units</t>
-  </si>
-  <si>
-    <t>Дополняет систему войны</t>
-  </si>
-  <si>
-    <t>артемпермяков</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1PRsaIe0oWgcEOxw-BcE6tDCJF1oIKYjnv23OQ2t7hNw/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>Пути войны</t>
-  </si>
-  <si>
-    <t>mod;new;large;global;war;buildings;units;top</t>
-  </si>
-  <si>
-    <t>изменяет ванильную боевую систему на новую.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1smiCTgngQs0DAdjECdS3gCP9UyMLkyWe/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>mod;new;rebalance;top</t>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>mod;small;new;sea;objects;units</t>
+  </si>
+  <si>
+    <t>Добавляет нового юнита - пират, транспортное средство которое может переплывать через моря и океаны(реки), а также сами моря и океаны</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OwOjZ0MN6Yz6iUD6TGtjEtbQnmmpSUb6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>mod;new;medium;sea;units</t>
+  </si>
+  <si>
+    <t>обновленная механика кораблей</t>
+  </si>
+  <si>
+    <t>ЪЫЪ#1834</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gKLz2Qb1AOuVcDNHNZhKgKFhnRmSByTY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>single mode and something else</t>
+  </si>
+  <si>
+    <t>Ресурсы;РАБОТА и НОВЫЕ ЗДАНИЯ</t>
+  </si>
+  <si>
+    <t>mod;rebalance;medium</t>
+  </si>
+  <si>
+    <t>добавляет способ ходов в одиночном режиме, новые ресурсы, и ландшафт</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AXsYE0itcMeiDsJTO4EwJB0ftoqV1dZG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>StoneAge</t>
+  </si>
+  <si>
+    <t>Era Cycle+;Civ Fight</t>
+  </si>
+  <si>
+    <t>mod;new;enemies;units</t>
+  </si>
+  <si>
+    <t>каменный век</t>
+  </si>
+  <si>
+    <t>Леон#7783</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/172Sl0COLMgAZYZQ5tmhRuu5chmN_QRWH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>The Era of New Technologies</t>
+  </si>
+  <si>
+    <t>mod;large;new;units</t>
+  </si>
+  <si>
+    <t>Новые воины и система переворужения</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hHWKTNelD5usDIipGB8NmT9NMoxPmjVd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>mod;global;new;medium;war;buildings;resources;disease</t>
+  </si>
+  <si>
+    <t>1 альфа версия глобального мода на средневековье, в которой добавляется: времена года, ивенты с ними связанные, чума, авторитет власти, расширена механика колоний, новую механику захвата городов. Планируется: обновление религии, обновление войск, добавление штурмовых орудий. Некоторые механики не работают, это просто демонстрация выполненной работы и подогрев интереса.</t>
+  </si>
+  <si>
+    <t>Orry#6159</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RskCgX_0fmqsYQyOpO7nk4r-iWZ_nvH0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>The Revolution</t>
+  </si>
+  <si>
+    <t>этот мод добавляет революции возможность изменять размер налогов и контролировать уровень жизни населения</t>
+  </si>
+  <si>
+    <t>ZiGa#7527</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sZt2Sf0AYFIB9HEui5Xn4bc13ylhCX03/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Trains</t>
+  </si>
+  <si>
+    <t>mod;new;small;transport;buildings</t>
+  </si>
+  <si>
+    <t>добавляет механику поездов</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y1G7oFWLQPL4SBMkfjM4ao81bx6G9OQr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>mod;new;small;rebalance</t>
   </si>
   <si>
     <t>Добавляет систему ходов</t>
@@ -1243,22 +1485,79 @@
 </t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1FgBMCVl6u-rzMgyqlWqe207nA8L5--wr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Money is the future</t>
-  </si>
-  <si>
-    <t>mod;new;resources;buildings</t>
-  </si>
-  <si>
-    <t>расширяет экономику</t>
-  </si>
-  <si>
-    <t>floppyDisk#5590</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DGOPa7pbQp-wqtwDqaMLOwtaLUAY36u7/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1V3uS0H2oOX8mg-M5FDW9mcKtVU8pwYix/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Turns-Fast</t>
+  </si>
+  <si>
+    <t>submod;new;small</t>
+  </si>
+  <si>
+    <t>Hемного переделанный мод Turns</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qPGD1BC_6MTVHN-inD05V5CCsbuLpdmM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>UnitClasses</t>
+  </si>
+  <si>
+    <t>core;small;rebalance;war;units</t>
+  </si>
+  <si>
+    <t>Классификация юнитов по разным типам, чтобы было удобнее.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kBxb9OXiAn2owyDIZjsOF5uMADejJ5Ti/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>World Blood v1.1</t>
+  </si>
+  <si>
+    <t>mod;global;large;buildings;units;war;religion;resources;race</t>
+  </si>
+  <si>
+    <t>Много новых рас, механик и юнитов</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/139Ak-o72e8uBU2Wg-uSOEN-8t-OEXUEAG-b2nXJGpNw/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>World Blood v2.0</t>
+  </si>
+  <si>
+    <t>mod;global;large;buildings;units;war;religion;resources</t>
+  </si>
+  <si>
+    <t>Много новых рас, механик и юннитов</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Tyo_XI3su5fP2uBFmYPYUTvtEGZmaJdU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>World Blood v2.1beta</t>
+  </si>
+  <si>
+    <t>Новая версия создана в угоду баланса. Новые юниты, Воеводы, Здания.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ea35t_Pf9M8Qq8k0tww50Eo6er5NnTAJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>WORLD TO THE WORLD</t>
+  </si>
+  <si>
+    <t>Turns;Cooperate!+</t>
+  </si>
+  <si>
+    <t>mod;new;war;religion</t>
+  </si>
+  <si>
+    <t>Система появления новой религии, у идеологии и культуры появились предназначения, система оккупированного города, новые варианты победы.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z_6ybckhfqI0Uudt_z8AA2e20vlbjUS8/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1588,32 @@
     <font>
       <u/>
       <sz val="12.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF4A86E8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF4A86E8"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -1320,24 +1641,7 @@
     <font>
       <u/>
       <sz val="12.0"/>
-      <color rgb="FF4A86E8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF4A86E8"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1424,43 +1728,43 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1468,32 +1772,32 @@
     <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1773,49 +2077,49 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +2129,7 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4"/>
@@ -1837,7 +2141,7 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1847,142 +2151,143 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -1998,1148 +2303,1144 @@
       <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="C18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="D18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="E18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="F18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="D19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="E19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F21" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G21" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="F24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="E25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="F25" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="B27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F27" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
+      <c r="B28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="D28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="E28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="F28" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="G28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="C31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="D31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="18"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="G33" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="10" t="s">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="D34" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="E34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="F34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G35" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="F36" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="F37" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B38" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="C38" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="D38" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="26"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="D39" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10" t="s">
+      <c r="E39" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="F39" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="28" t="s">
+      <c r="E40" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
+      <c r="F40" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="E42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="10" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D43" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="20" t="s">
+      <c r="E43" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="F43" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="15" t="s">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="B46" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="C46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="E46" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="10" t="s">
+      <c r="F46" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" s="5"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1" t="s">
+      <c r="F48" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>256</v>
+      <c r="G50" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="D53" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="15" t="s">
+      <c r="E53" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="F53" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="18"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -3160,145 +3461,148 @@
       <c r="Y53" s="26"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="F54" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="10" t="s">
+      <c r="B56" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="D57" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="E57" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="C58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B60" s="21" t="s">
         <v>298</v>
       </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
         <v>299</v>
       </c>
@@ -3306,832 +3610,1200 @@
         <v>300</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="A61" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="17" t="s">
+      <c r="D61" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G61" s="18"/>
+      <c r="E61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="E62" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="D62" s="1" t="s">
         <v>309</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F65" s="20" t="s">
+      <c r="A65" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G65" s="6"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
+      <c r="A66" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="A67" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>334</v>
-      </c>
+      <c r="F68" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>337</v>
-      </c>
+      <c r="A69" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
+      <c r="A70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
+      <c r="A72" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>355</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>358</v>
+        <v>148</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>372</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
+      <c r="A78" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>389</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
+      <c r="A81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>396</v>
+        <v>25</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
+      <c r="A83" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
+      <c r="A84" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>409</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="32"/>
+      <c r="A86" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="32"/>
+      <c r="C87" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="32"/>
+      <c r="A88" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="32"/>
+      <c r="A89" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="32"/>
+      <c r="C90" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="32"/>
+      <c r="A91" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="32"/>
+      <c r="A92" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="32"/>
+      <c r="A93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="32"/>
+      <c r="A94" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="32"/>
+      <c r="A95" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="32"/>
+      <c r="C96" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="32"/>
+      <c r="A97" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="32"/>
+      <c r="A98" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="32"/>
+      <c r="A99" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="32"/>
+      <c r="C100" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="32"/>
+      <c r="A101" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="32"/>
+      <c r="A102" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="32"/>
+      <c r="A103" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="32"/>
+      <c r="A104" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="1"/>
       <c r="E105" s="2"/>
       <c r="F105" s="32"/>
     </row>
@@ -11297,7 +11969,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4B4AFF4E-8B98-4D6A-988F-CFF0A3FAAF6C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7E0E7B26-1DBE-4290-BBB8-451279177D45}" filter="1" showAutoFilter="1">
       <autoFilter ref="$C$1:$C$1000"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -11362,40 +12034,61 @@
     <hyperlink r:id="rId53" ref="F53"/>
     <hyperlink r:id="rId54" ref="F54"/>
     <hyperlink r:id="rId55" ref="F55"/>
-    <hyperlink r:id="rId56" ref="F56"/>
-    <hyperlink r:id="rId57" ref="F57"/>
-    <hyperlink r:id="rId58" ref="F58"/>
-    <hyperlink r:id="rId59" ref="F59"/>
-    <hyperlink r:id="rId60" ref="F60"/>
-    <hyperlink r:id="rId61" ref="F61"/>
-    <hyperlink r:id="rId62" ref="F62"/>
-    <hyperlink r:id="rId63" ref="F63"/>
-    <hyperlink r:id="rId64" ref="F64"/>
-    <hyperlink r:id="rId65" ref="F65"/>
-    <hyperlink r:id="rId66" ref="F66"/>
-    <hyperlink r:id="rId67" ref="F67"/>
-    <hyperlink r:id="rId68" ref="F68"/>
-    <hyperlink r:id="rId69" ref="F69"/>
-    <hyperlink r:id="rId70" ref="F70"/>
-    <hyperlink r:id="rId71" ref="F71"/>
-    <hyperlink r:id="rId72" ref="F72"/>
-    <hyperlink r:id="rId73" ref="F73"/>
-    <hyperlink r:id="rId74" ref="F74"/>
-    <hyperlink r:id="rId75" ref="F75"/>
-    <hyperlink r:id="rId76" ref="F76"/>
-    <hyperlink r:id="rId77" ref="F77"/>
-    <hyperlink r:id="rId78" ref="F78"/>
-    <hyperlink r:id="rId79" ref="F79"/>
-    <hyperlink r:id="rId80" ref="F80"/>
-    <hyperlink r:id="rId81" ref="F81"/>
-    <hyperlink r:id="rId82" ref="F82"/>
-    <hyperlink r:id="rId83" ref="F83"/>
-    <hyperlink r:id="rId84" ref="F84"/>
-    <hyperlink r:id="rId85" ref="F85"/>
+    <hyperlink r:id="rId56" ref="D56"/>
+    <hyperlink r:id="rId57" ref="F56"/>
+    <hyperlink r:id="rId58" ref="D57"/>
+    <hyperlink r:id="rId59" ref="F57"/>
+    <hyperlink r:id="rId60" ref="F58"/>
+    <hyperlink r:id="rId61" ref="F59"/>
+    <hyperlink r:id="rId62" ref="F60"/>
+    <hyperlink r:id="rId63" ref="F61"/>
+    <hyperlink r:id="rId64" ref="F62"/>
+    <hyperlink r:id="rId65" ref="F63"/>
+    <hyperlink r:id="rId66" ref="F64"/>
+    <hyperlink r:id="rId67" ref="F65"/>
+    <hyperlink r:id="rId68" ref="F66"/>
+    <hyperlink r:id="rId69" ref="F67"/>
+    <hyperlink r:id="rId70" ref="F68"/>
+    <hyperlink r:id="rId71" ref="F69"/>
+    <hyperlink r:id="rId72" ref="F70"/>
+    <hyperlink r:id="rId73" ref="F71"/>
+    <hyperlink r:id="rId74" ref="F72"/>
+    <hyperlink r:id="rId75" ref="F73"/>
+    <hyperlink r:id="rId76" ref="F74"/>
+    <hyperlink r:id="rId77" ref="F75"/>
+    <hyperlink r:id="rId78" ref="F76"/>
+    <hyperlink r:id="rId79" ref="F77"/>
+    <hyperlink r:id="rId80" ref="F78"/>
+    <hyperlink r:id="rId81" ref="F79"/>
+    <hyperlink r:id="rId82" ref="F80"/>
+    <hyperlink r:id="rId83" ref="F81"/>
+    <hyperlink r:id="rId84" ref="F82"/>
+    <hyperlink r:id="rId85" ref="F83"/>
+    <hyperlink r:id="rId86" ref="F84"/>
+    <hyperlink r:id="rId87" ref="F85"/>
+    <hyperlink r:id="rId88" ref="F86"/>
+    <hyperlink r:id="rId89" ref="F87"/>
+    <hyperlink r:id="rId90" ref="F88"/>
+    <hyperlink r:id="rId91" ref="F89"/>
+    <hyperlink r:id="rId92" ref="F90"/>
+    <hyperlink r:id="rId93" ref="F91"/>
+    <hyperlink r:id="rId94" ref="F92"/>
+    <hyperlink r:id="rId95" ref="F93"/>
+    <hyperlink r:id="rId96" ref="F94"/>
+    <hyperlink r:id="rId97" ref="F95"/>
+    <hyperlink r:id="rId98" ref="F96"/>
+    <hyperlink r:id="rId99" ref="F97"/>
+    <hyperlink r:id="rId100" ref="F98"/>
+    <hyperlink r:id="rId101" ref="F99"/>
+    <hyperlink r:id="rId102" ref="F100"/>
+    <hyperlink r:id="rId103" ref="F101"/>
+    <hyperlink r:id="rId104" ref="F102"/>
+    <hyperlink r:id="rId105" ref="F103"/>
+    <hyperlink r:id="rId106" ref="F104"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId86"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>